--- a/exp-K2.xlsx
+++ b/exp-K2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Pipe_Flow\03_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EFF1B24-3A5B-4EF0-8F9D-70E38CC60F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99C4FA30-6016-4CBD-9E41-506A25FEA1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="13725" windowHeight="12585"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="exp-K2" sheetId="1" r:id="rId1"/>
@@ -977,9 +977,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B653"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -993,666 +993,5218 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>28.8</v>
+        <v>3.8</v>
       </c>
       <c r="B2">
-        <v>106.456</v>
+        <v>119.217</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>38.1</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="B3">
-        <v>104.441</v>
+        <v>117.834</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>42.6</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>102.46899999999999</v>
+        <v>116.20699999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>53.6</v>
+        <v>23.5</v>
       </c>
       <c r="B5">
-        <v>101.68300000000001</v>
+        <v>114.824</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>61</v>
+        <v>28.3</v>
       </c>
       <c r="B6">
-        <v>100.761</v>
+        <v>111.59699999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>62.4</v>
+        <v>28.4</v>
       </c>
       <c r="B7">
-        <v>99.457999999999998</v>
+        <v>112.79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>75.099999999999994</v>
+        <v>30.8</v>
       </c>
       <c r="B8">
-        <v>97.724999999999994</v>
+        <v>108.88500000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>78</v>
+        <v>30.8</v>
       </c>
       <c r="B9">
-        <v>97.015000000000001</v>
+        <v>110.105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>80</v>
+        <v>38.1</v>
       </c>
       <c r="B10">
-        <v>98.489000000000004</v>
+        <v>106.336</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>94.6</v>
+        <v>38.1</v>
       </c>
       <c r="B11">
-        <v>96.186999999999998</v>
+        <v>107.66500000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>116.1</v>
+        <v>40.5</v>
       </c>
       <c r="B12">
-        <v>95.712999999999994</v>
+        <v>99.393000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>121</v>
+        <v>40.5</v>
       </c>
       <c r="B13">
-        <v>93.626000000000005</v>
+        <v>100.64100000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>163</v>
+        <v>40.5</v>
       </c>
       <c r="B14">
-        <v>93.25</v>
+        <v>101.94199999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>301.8</v>
+        <v>45.4</v>
       </c>
       <c r="B15">
-        <v>91.570999999999998</v>
+        <v>103.244</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>399.5</v>
+        <v>50.4</v>
       </c>
       <c r="B16">
-        <v>89.936000000000007</v>
+        <v>104.84399999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>454.2</v>
+        <v>55.2</v>
       </c>
       <c r="B17">
-        <v>88.837999999999994</v>
+        <v>97.549000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>501.2</v>
+        <v>65</v>
       </c>
       <c r="B18">
-        <v>87.847999999999999</v>
+        <v>96.382999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>602.79999999999995</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="B19">
-        <v>86.471000000000004</v>
+        <v>95.162999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>684.9</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="B20">
-        <v>85.524000000000001</v>
+        <v>95.433999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>782.6</v>
+        <v>92.2</v>
       </c>
       <c r="B21">
-        <v>84.319000000000003</v>
+        <v>98.444000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>856.9</v>
+        <v>92.2</v>
       </c>
       <c r="B22">
-        <v>83.328999999999994</v>
+        <v>99.664000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>970.3</v>
+        <v>92.2</v>
       </c>
       <c r="B23">
-        <v>81.608000000000004</v>
+        <v>100.18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1044.5999999999999</v>
+        <v>102</v>
       </c>
       <c r="B24">
-        <v>80.832999999999998</v>
+        <v>97.087999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1169.7</v>
+        <v>106.8</v>
       </c>
       <c r="B25">
-        <v>79.971999999999994</v>
+        <v>88.03</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1302.5999999999999</v>
+        <v>106.8</v>
       </c>
       <c r="B26">
-        <v>79.326999999999998</v>
+        <v>89.006</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1376.9</v>
+        <v>109.3</v>
       </c>
       <c r="B27">
-        <v>78.896000000000001</v>
+        <v>90.388999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1521.5</v>
+        <v>109.3</v>
       </c>
       <c r="B28">
-        <v>77.733999999999995</v>
+        <v>91.122</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1685.8</v>
+        <v>109.3</v>
       </c>
       <c r="B29">
-        <v>76.700999999999993</v>
+        <v>93.778999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1834.3</v>
+        <v>111.8</v>
       </c>
       <c r="B30">
-        <v>76.185000000000002</v>
+        <v>92.043999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1998.5</v>
+        <v>111.8</v>
       </c>
       <c r="B31">
-        <v>75.323999999999998</v>
+        <v>92.938999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>2119.6999999999998</v>
+        <v>119.2</v>
       </c>
       <c r="B32">
-        <v>74.679000000000002</v>
+        <v>95.921999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>2229.1999999999998</v>
+        <v>126.6</v>
       </c>
       <c r="B33">
-        <v>73.775000000000006</v>
+        <v>97.251000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>2358.1999999999998</v>
+        <v>126.6</v>
       </c>
       <c r="B34">
-        <v>72.483999999999995</v>
+        <v>99.067999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>2475.5</v>
+        <v>128.9</v>
       </c>
       <c r="B35">
-        <v>71.709000000000003</v>
+        <v>88.707999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2592.8000000000002</v>
+        <v>128.9</v>
       </c>
       <c r="B36">
-        <v>70.977000000000004</v>
+        <v>89.549000000000007</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>2702.3</v>
+        <v>129.1</v>
       </c>
       <c r="B37">
-        <v>70.073999999999998</v>
+        <v>97.929000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>2925.1</v>
+        <v>131.4</v>
       </c>
       <c r="B38">
-        <v>68.566999999999993</v>
+        <v>90.769000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>3081.5</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="B39">
-        <v>67.62</v>
+        <v>92.233999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>3202.7</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="B40">
-        <v>66.974999999999994</v>
+        <v>93.263999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>3363</v>
+        <v>163.5</v>
       </c>
       <c r="B41">
-        <v>66.242999999999995</v>
+        <v>94.322000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>3578.1</v>
+        <v>175.8</v>
       </c>
       <c r="B42">
-        <v>65.424999999999997</v>
+        <v>94.891000000000005</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>3746.2</v>
+        <v>198</v>
       </c>
       <c r="B43">
-        <v>65.123999999999995</v>
+        <v>95.813000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>3843.9</v>
+        <v>212.8</v>
       </c>
       <c r="B44">
-        <v>64.650999999999996</v>
+        <v>96.707999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>3871.3</v>
+        <v>220.2</v>
       </c>
       <c r="B45">
-        <v>65.899000000000001</v>
+        <v>97.385999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>3926.1</v>
+        <v>230</v>
       </c>
       <c r="B46">
-        <v>67.361999999999995</v>
+        <v>92.802999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>3965.2</v>
+        <v>230.1</v>
       </c>
       <c r="B47">
-        <v>69.557000000000002</v>
+        <v>97.602999999999994</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>3984.8</v>
+        <v>239.8</v>
       </c>
       <c r="B48">
-        <v>72.828000000000003</v>
+        <v>93.344999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>3996.6</v>
+        <v>252.2</v>
       </c>
       <c r="B49">
-        <v>74.549000000000007</v>
+        <v>94.674000000000007</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>4004.3</v>
+        <v>259.5</v>
       </c>
       <c r="B50">
-        <v>70.762</v>
+        <v>90.308000000000007</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>4035.7</v>
+        <v>262</v>
       </c>
       <c r="B51">
-        <v>77.346999999999994</v>
+        <v>91.149000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>4043.5</v>
+        <v>271.7</v>
       </c>
       <c r="B52">
-        <v>76.356999999999999</v>
+        <v>87.027000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>4078.7</v>
+        <v>274.2</v>
       </c>
       <c r="B53">
-        <v>73.472999999999999</v>
+        <v>87.352000000000004</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>4109.8999999999996</v>
+        <v>274.2</v>
       </c>
       <c r="B54">
-        <v>72.353999999999999</v>
+        <v>88.084000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>4129.5</v>
+        <v>274.2</v>
       </c>
       <c r="B55">
-        <v>71.623000000000005</v>
+        <v>89.168999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>4149</v>
+        <v>318.60000000000002</v>
       </c>
       <c r="B56">
-        <v>70.504000000000005</v>
+        <v>90.769000000000005</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>4188.1000000000004</v>
+        <v>321.10000000000002</v>
       </c>
       <c r="B57">
-        <v>69.471000000000004</v>
+        <v>91.962000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>4235</v>
+        <v>323.5</v>
       </c>
       <c r="B58">
-        <v>68.093999999999994</v>
+        <v>91.881</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>4274.1000000000004</v>
+        <v>323.60000000000002</v>
       </c>
       <c r="B59">
-        <v>67.233000000000004</v>
+        <v>92.775999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>4293.6000000000004</v>
+        <v>331</v>
       </c>
       <c r="B60">
-        <v>67.447999999999993</v>
+        <v>93.805999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>4324.8999999999996</v>
+        <v>331</v>
       </c>
       <c r="B61">
-        <v>67.19</v>
+        <v>94.05</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>4356.2</v>
+        <v>335.8</v>
       </c>
       <c r="B62">
-        <v>66.673000000000002</v>
+        <v>90.85</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>4426.6000000000004</v>
+        <v>343.2</v>
       </c>
       <c r="B63">
-        <v>66.543999999999997</v>
+        <v>90.254000000000005</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>4477.3999999999996</v>
+        <v>348.1</v>
       </c>
       <c r="B64">
-        <v>65.984999999999999</v>
+        <v>89.82</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>4508.7</v>
+        <v>358</v>
       </c>
       <c r="B65">
-        <v>65.554000000000002</v>
+        <v>90.442999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>4622.1000000000004</v>
+        <v>390</v>
       </c>
       <c r="B66">
-        <v>65.081000000000003</v>
+        <v>91.691000000000003</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>4672.8999999999996</v>
+        <v>397.4</v>
       </c>
       <c r="B67">
-        <v>64.563999999999993</v>
+        <v>92.477000000000004</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>4739.3</v>
+        <v>412.1</v>
       </c>
       <c r="B68">
-        <v>64.521000000000001</v>
+        <v>86.864000000000004</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>4805.8</v>
+        <v>414.6</v>
       </c>
       <c r="B69">
-        <v>64.177000000000007</v>
+        <v>87.542000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>4903.6000000000004</v>
+        <v>414.6</v>
       </c>
       <c r="B70">
-        <v>63.575000000000003</v>
+        <v>88.03</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>4962.2</v>
+        <v>424.5</v>
       </c>
       <c r="B71">
-        <v>63.316000000000003</v>
+        <v>88.599000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>5075.6000000000004</v>
+        <v>424.5</v>
       </c>
       <c r="B72">
-        <v>63.100999999999999</v>
+        <v>92.992999999999995</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>5134.2</v>
+        <v>424.5</v>
       </c>
       <c r="B73">
-        <v>62.886000000000003</v>
+        <v>93.236999999999995</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>5263.3</v>
+        <v>426.9</v>
       </c>
       <c r="B74">
-        <v>62.886000000000003</v>
+        <v>89.006</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>5325.8</v>
+        <v>429.4</v>
       </c>
       <c r="B75">
-        <v>62.713999999999999</v>
+        <v>87.786000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>5411.8</v>
+        <v>429.4</v>
       </c>
       <c r="B76">
-        <v>62.024999999999999</v>
+        <v>89.385999999999996</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>5548.7</v>
+        <v>441.7</v>
       </c>
       <c r="B77">
-        <v>61.466000000000001</v>
+        <v>90.388999999999996</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>5744.2</v>
+        <v>456.5</v>
       </c>
       <c r="B78">
-        <v>61.121000000000002</v>
+        <v>91.474000000000004</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>5896.7</v>
+        <v>463.9</v>
       </c>
       <c r="B79">
-        <v>60.991999999999997</v>
+        <v>88.789000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>6014</v>
+        <v>488.5</v>
       </c>
       <c r="B80">
-        <v>60.82</v>
+        <v>89.548000000000002</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>6123.5</v>
+        <v>495.8</v>
       </c>
       <c r="B81">
-        <v>60.604999999999997</v>
+        <v>86.864000000000004</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>6240.7</v>
+        <v>498.3</v>
       </c>
       <c r="B82">
-        <v>60.26</v>
+        <v>87.486999999999995</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>6373.7</v>
+        <v>503.3</v>
       </c>
       <c r="B83">
-        <v>60.045000000000002</v>
+        <v>90.253</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>6448</v>
+        <v>505.7</v>
       </c>
       <c r="B84">
-        <v>60.045000000000002</v>
+        <v>86.456999999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>515.5</v>
+      </c>
+      <c r="B85">
+        <v>85.941000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>520.4</v>
+      </c>
+      <c r="B86">
+        <v>83.852999999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>520.4</v>
+      </c>
+      <c r="B87">
+        <v>84.233000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>520.4</v>
+      </c>
+      <c r="B88">
+        <v>85.100999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>520.5</v>
+      </c>
+      <c r="B89">
+        <v>90.903999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>525.29999999999995</v>
+      </c>
+      <c r="B90">
+        <v>82.768000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>525.29999999999995</v>
+      </c>
+      <c r="B91">
+        <v>82.796000000000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>532.70000000000005</v>
+      </c>
+      <c r="B92">
+        <v>82.28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>535.29999999999995</v>
+      </c>
+      <c r="B93">
+        <v>89.412999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>537.6</v>
+      </c>
+      <c r="B94">
+        <v>82.415999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>545.1</v>
+      </c>
+      <c r="B95">
+        <v>84.856999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>555</v>
+      </c>
+      <c r="B96">
+        <v>90.796000000000006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>560</v>
+      </c>
+      <c r="B97">
+        <v>91.935000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>562.29999999999995</v>
+      </c>
+      <c r="B98">
+        <v>85.561999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>567.4</v>
+      </c>
+      <c r="B99">
+        <v>92.179000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>572.20000000000005</v>
+      </c>
+      <c r="B100">
+        <v>85.887</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>582</v>
+      </c>
+      <c r="B101">
+        <v>86.674000000000007</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>584.5</v>
+      </c>
+      <c r="B102">
+        <v>87.296999999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>604.20000000000005</v>
+      </c>
+      <c r="B103">
+        <v>88.218999999999994</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>628.79999999999995</v>
+      </c>
+      <c r="B104">
+        <v>84.611999999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>628.79999999999995</v>
+      </c>
+      <c r="B105">
+        <v>85.48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>628.79999999999995</v>
+      </c>
+      <c r="B106">
+        <v>86.131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>628.9</v>
+      </c>
+      <c r="B107">
+        <v>89.06</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>638.70000000000005</v>
+      </c>
+      <c r="B108">
+        <v>88.545000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>638.70000000000005</v>
+      </c>
+      <c r="B109">
+        <v>89.63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>638.70000000000005</v>
+      </c>
+      <c r="B110">
+        <v>90.117999999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>646</v>
+      </c>
+      <c r="B111">
+        <v>83.284000000000006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>655.9</v>
+      </c>
+      <c r="B112">
+        <v>82.768000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>658.3</v>
+      </c>
+      <c r="B113">
+        <v>81.954999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>658.3</v>
+      </c>
+      <c r="B114">
+        <v>82.09</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>660.8</v>
+      </c>
+      <c r="B115">
+        <v>82.930999999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>680.5</v>
+      </c>
+      <c r="B116">
+        <v>85.344999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>695.3</v>
+      </c>
+      <c r="B117">
+        <v>86.944999999999993</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>705.2</v>
+      </c>
+      <c r="B118">
+        <v>87.784999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>712.6</v>
+      </c>
+      <c r="B119">
+        <v>88.653000000000006</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>722.3</v>
+      </c>
+      <c r="B120">
+        <v>81.194999999999993</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>722.5</v>
+      </c>
+      <c r="B121">
+        <v>89.521000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>724.8</v>
+      </c>
+      <c r="B122">
+        <v>81.927999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>727.2</v>
+      </c>
+      <c r="B123">
+        <v>80.328000000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>734.7</v>
+      </c>
+      <c r="B124">
+        <v>87.921000000000006</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>737.1</v>
+      </c>
+      <c r="B125">
+        <v>80.082999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>737.2</v>
+      </c>
+      <c r="B126">
+        <v>86.835999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>739.6</v>
+      </c>
+      <c r="B127">
+        <v>82.984999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>739.6</v>
+      </c>
+      <c r="B128">
+        <v>86.076999999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>742.1</v>
+      </c>
+      <c r="B129">
+        <v>83.555000000000007</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>742.1</v>
+      </c>
+      <c r="B130">
+        <v>84.423000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>742.1</v>
+      </c>
+      <c r="B131">
+        <v>84.965000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>742.2</v>
+      </c>
+      <c r="B132">
+        <v>91.066999999999993</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>747.1</v>
+      </c>
+      <c r="B133">
+        <v>91.662999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>764.2</v>
+      </c>
+      <c r="B134">
+        <v>81.004999999999995</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>801.2</v>
+      </c>
+      <c r="B135">
+        <v>82.713999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>803.6</v>
+      </c>
+      <c r="B136">
+        <v>83.799000000000007</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>808.6</v>
+      </c>
+      <c r="B137">
+        <v>83.799000000000007</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>811</v>
+      </c>
+      <c r="B138">
+        <v>85.236000000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>811.1</v>
+      </c>
+      <c r="B139">
+        <v>86.022999999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>811.1</v>
+      </c>
+      <c r="B140">
+        <v>86.646000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>811.1</v>
+      </c>
+      <c r="B141">
+        <v>87.134</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>811.1</v>
+      </c>
+      <c r="B142">
+        <v>87.65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>813.5</v>
+      </c>
+      <c r="B143">
+        <v>84.992000000000004</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>818.4</v>
+      </c>
+      <c r="B144">
+        <v>82.063000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>820.9</v>
+      </c>
+      <c r="B145">
+        <v>88.138000000000005</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>830.7</v>
+      </c>
+      <c r="B146">
+        <v>80.11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>830.7</v>
+      </c>
+      <c r="B147">
+        <v>80.191999999999993</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>830.7</v>
+      </c>
+      <c r="B148">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>830.7</v>
+      </c>
+      <c r="B149">
+        <v>80.977999999999994</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>830.8</v>
+      </c>
+      <c r="B150">
+        <v>86.537999999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>833.1</v>
+      </c>
+      <c r="B151">
+        <v>80.706999999999994</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>833.1</v>
+      </c>
+      <c r="B152">
+        <v>80.897000000000006</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>835.7</v>
+      </c>
+      <c r="B153">
+        <v>88.706999999999994</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>840.7</v>
+      </c>
+      <c r="B154">
+        <v>88.843000000000004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>862.8</v>
+      </c>
+      <c r="B155">
+        <v>86.944999999999993</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>862.8</v>
+      </c>
+      <c r="B156">
+        <v>87.622</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>870.2</v>
+      </c>
+      <c r="B157">
+        <v>86.158000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>872.6</v>
+      </c>
+      <c r="B158">
+        <v>84.965000000000003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>872.6</v>
+      </c>
+      <c r="B159">
+        <v>85.616</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>875</v>
+      </c>
+      <c r="B160">
+        <v>83.256</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>875.1</v>
+      </c>
+      <c r="B161">
+        <v>83.716999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>875.1</v>
+      </c>
+      <c r="B162">
+        <v>84.340999999999994</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>882.4</v>
+      </c>
+      <c r="B163">
+        <v>82.795000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>884.9</v>
+      </c>
+      <c r="B164">
+        <v>81.656000000000006</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>884.9</v>
+      </c>
+      <c r="B165">
+        <v>82.063000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>884.9</v>
+      </c>
+      <c r="B166">
+        <v>82.415999999999997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>887.3</v>
+      </c>
+      <c r="B167">
+        <v>81.385000000000005</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>889.8</v>
+      </c>
+      <c r="B168">
+        <v>79.350999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>889.8</v>
+      </c>
+      <c r="B169">
+        <v>79.459999999999994</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>889.8</v>
+      </c>
+      <c r="B170">
+        <v>79.486999999999995</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>889.8</v>
+      </c>
+      <c r="B171">
+        <v>80.028999999999996</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>892.2</v>
+      </c>
+      <c r="B172">
+        <v>80.489999999999995</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>907</v>
+      </c>
+      <c r="B173">
+        <v>80.843000000000004</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>921.8</v>
+      </c>
+      <c r="B174">
+        <v>81.629000000000005</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>931.7</v>
+      </c>
+      <c r="B175">
+        <v>82.388000000000005</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>936.6</v>
+      </c>
+      <c r="B176">
+        <v>83.228999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>948.9</v>
+      </c>
+      <c r="B177">
+        <v>83.88</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>958.7</v>
+      </c>
+      <c r="B178">
+        <v>80.87</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>961.3</v>
+      </c>
+      <c r="B179">
+        <v>84.448999999999998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>966.1</v>
+      </c>
+      <c r="B180">
+        <v>80.245999999999995</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>966.1</v>
+      </c>
+      <c r="B181">
+        <v>81.873000000000005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>973.6</v>
+      </c>
+      <c r="B182">
+        <v>84.992000000000004</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>976.1</v>
+      </c>
+      <c r="B183">
+        <v>85.29</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>978.5</v>
+      </c>
+      <c r="B184">
+        <v>82.822000000000003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>978.5</v>
+      </c>
+      <c r="B185">
+        <v>85.426000000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>980.9</v>
+      </c>
+      <c r="B186">
+        <v>79.188000000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>980.9</v>
+      </c>
+      <c r="B187">
+        <v>79.242000000000004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>980.9</v>
+      </c>
+      <c r="B188">
+        <v>83.283000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>981</v>
+      </c>
+      <c r="B189">
+        <v>85.561000000000007</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>985.9</v>
+      </c>
+      <c r="B190">
+        <v>83.960999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>985.9</v>
+      </c>
+      <c r="B191">
+        <v>85.995000000000005</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>985.9</v>
+      </c>
+      <c r="B192">
+        <v>86.483000000000004</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>985.9</v>
+      </c>
+      <c r="B193">
+        <v>86.51</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>988.4</v>
+      </c>
+      <c r="B194">
+        <v>85.153999999999996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>1000.6</v>
+      </c>
+      <c r="B195">
+        <v>79.866</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>1008</v>
+      </c>
+      <c r="B196">
+        <v>80.760999999999996</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>1030.2</v>
+      </c>
+      <c r="B197">
+        <v>81.709999999999994</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>1040</v>
+      </c>
+      <c r="B198">
+        <v>82.849000000000004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>1040.0999999999999</v>
+      </c>
+      <c r="B199">
+        <v>83.608999999999995</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>1044.9000000000001</v>
+      </c>
+      <c r="B200">
+        <v>80.245999999999995</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>1045</v>
+      </c>
+      <c r="B201">
+        <v>84.367999999999995</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>1052.3</v>
+      </c>
+      <c r="B202">
+        <v>81.194999999999993</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>1052.4000000000001</v>
+      </c>
+      <c r="B203">
+        <v>84.748000000000005</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>1062.2</v>
+      </c>
+      <c r="B204">
+        <v>82.28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>1064.7</v>
+      </c>
+      <c r="B205">
+        <v>83.093000000000004</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>1064.7</v>
+      </c>
+      <c r="B206">
+        <v>85.182000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1067.0999999999999</v>
+      </c>
+      <c r="B207">
+        <v>79.27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1069.5999999999999</v>
+      </c>
+      <c r="B208">
+        <v>85.67</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>1069.7</v>
+      </c>
+      <c r="B209">
+        <v>86.646000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>1069.7</v>
+      </c>
+      <c r="B210">
+        <v>87.08</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>1072</v>
+      </c>
+      <c r="B211">
+        <v>79.378</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>1072.0999999999999</v>
+      </c>
+      <c r="B212">
+        <v>84.531000000000006</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>1106.5</v>
+      </c>
+      <c r="B213">
+        <v>80.326999999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>1126.2</v>
+      </c>
+      <c r="B214">
+        <v>81.141000000000005</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>1133.5999999999999</v>
+      </c>
+      <c r="B215">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>1136.0999999999999</v>
+      </c>
+      <c r="B216">
+        <v>82.741</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>1141</v>
+      </c>
+      <c r="B217">
+        <v>83.581000000000003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>1150.9000000000001</v>
+      </c>
+      <c r="B218">
+        <v>84.340999999999994</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>1150.9000000000001</v>
+      </c>
+      <c r="B219">
+        <v>85.019000000000005</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>1150.9000000000001</v>
+      </c>
+      <c r="B220">
+        <v>85.561000000000007</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>1155.8</v>
+      </c>
+      <c r="B221">
+        <v>82.605000000000004</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>1158.2</v>
+      </c>
+      <c r="B222">
+        <v>82.036000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>1163.0999999999999</v>
+      </c>
+      <c r="B223">
+        <v>78.022000000000006</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>1163.0999999999999</v>
+      </c>
+      <c r="B224">
+        <v>78.293000000000006</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>1163.0999999999999</v>
+      </c>
+      <c r="B225">
+        <v>78.863</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>1163.2</v>
+      </c>
+      <c r="B226">
+        <v>81.656000000000006</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>1165.5999999999999</v>
+      </c>
+      <c r="B227">
+        <v>79.378</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>1165.5999999999999</v>
+      </c>
+      <c r="B228">
+        <v>81.114000000000004</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>1168.0999999999999</v>
+      </c>
+      <c r="B229">
+        <v>79.974000000000004</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1168.0999999999999</v>
+      </c>
+      <c r="B230">
+        <v>80.516999999999996</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>1170.5</v>
+      </c>
+      <c r="B231">
+        <v>78.266000000000005</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>1187.7</v>
+      </c>
+      <c r="B232">
+        <v>79.188000000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>1197.5999999999999</v>
+      </c>
+      <c r="B233">
+        <v>79.73</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>1207.5</v>
+      </c>
+      <c r="B234">
+        <v>80.353999999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>1224.7</v>
+      </c>
+      <c r="B235">
+        <v>81.113</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1234.5999999999999</v>
+      </c>
+      <c r="B236">
+        <v>81.709999999999994</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>1251.8</v>
+      </c>
+      <c r="B237">
+        <v>82.334000000000003</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>1261.7</v>
+      </c>
+      <c r="B238">
+        <v>83.039000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>1261.7</v>
+      </c>
+      <c r="B239">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>1264.0999999999999</v>
+      </c>
+      <c r="B240">
+        <v>77.831999999999994</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>1264.0999999999999</v>
+      </c>
+      <c r="B241">
+        <v>79.242000000000004</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>1266.5</v>
+      </c>
+      <c r="B242">
+        <v>78.075999999999993</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>1266.5</v>
+      </c>
+      <c r="B243">
+        <v>78.754000000000005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>1266.5999999999999</v>
+      </c>
+      <c r="B244">
+        <v>80.218000000000004</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>1273.9000000000001</v>
+      </c>
+      <c r="B245">
+        <v>78.346999999999994</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>1274</v>
+      </c>
+      <c r="B246">
+        <v>82.849000000000004</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>1276.4000000000001</v>
+      </c>
+      <c r="B247">
+        <v>81.385000000000005</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>1293.5999999999999</v>
+      </c>
+      <c r="B248">
+        <v>78.944000000000003</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>1310.9</v>
+      </c>
+      <c r="B249">
+        <v>79.784999999999997</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>1328.1</v>
+      </c>
+      <c r="B250">
+        <v>78.89</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>1335.5</v>
+      </c>
+      <c r="B251">
+        <v>77.912999999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>1335.5</v>
+      </c>
+      <c r="B252">
+        <v>80.923000000000002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>1340.4</v>
+      </c>
+      <c r="B253">
+        <v>80.055999999999997</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>1342.9</v>
+      </c>
+      <c r="B254">
+        <v>81.492999999999995</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>1345.4</v>
+      </c>
+      <c r="B255">
+        <v>82.224999999999994</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>1347.8</v>
+      </c>
+      <c r="B256">
+        <v>77.289000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>1347.8</v>
+      </c>
+      <c r="B257">
+        <v>77.397999999999996</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>1347.9</v>
+      </c>
+      <c r="B258">
+        <v>83.147000000000006</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>1352.8</v>
+      </c>
+      <c r="B259">
+        <v>81.492999999999995</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>1357.7</v>
+      </c>
+      <c r="B260">
+        <v>78.266000000000005</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>1374.9</v>
+      </c>
+      <c r="B261">
+        <v>78.944000000000003</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>1389.7</v>
+      </c>
+      <c r="B262">
+        <v>79.676000000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>1397.1</v>
+      </c>
+      <c r="B263">
+        <v>80.272999999999996</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>1409.4</v>
+      </c>
+      <c r="B264">
+        <v>81.412000000000006</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>1421.7</v>
+      </c>
+      <c r="B265">
+        <v>78.075999999999993</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>1424.2</v>
+      </c>
+      <c r="B266">
+        <v>78.834999999999994</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>1426.6</v>
+      </c>
+      <c r="B267">
+        <v>77.506</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>1431.6</v>
+      </c>
+      <c r="B268">
+        <v>79.322999999999993</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>1436.4</v>
+      </c>
+      <c r="B269">
+        <v>77.153999999999996</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>1436.5</v>
+      </c>
+      <c r="B270">
+        <v>79.594999999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>1456.1</v>
+      </c>
+      <c r="B271">
+        <v>76.882999999999996</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>1473.4</v>
+      </c>
+      <c r="B272">
+        <v>76.665999999999997</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>1478.3</v>
+      </c>
+      <c r="B273">
+        <v>76.557000000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>1478.3</v>
+      </c>
+      <c r="B274">
+        <v>76.801000000000002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>1478.3</v>
+      </c>
+      <c r="B275">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>1493.1</v>
+      </c>
+      <c r="B276">
+        <v>77.561000000000007</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>1505.4</v>
+      </c>
+      <c r="B277">
+        <v>77.75</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>1517.7</v>
+      </c>
+      <c r="B278">
+        <v>78.049000000000007</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>1522.7</v>
+      </c>
+      <c r="B279">
+        <v>78.293000000000006</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>1530.1</v>
+      </c>
+      <c r="B280">
+        <v>78.590999999999994</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>1547.3</v>
+      </c>
+      <c r="B281">
+        <v>79.052000000000007</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>1557.1</v>
+      </c>
+      <c r="B282">
+        <v>77.478999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>1557.1</v>
+      </c>
+      <c r="B283">
+        <v>77.805000000000007</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>1562.1</v>
+      </c>
+      <c r="B284">
+        <v>79.405000000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>1569.5</v>
+      </c>
+      <c r="B285">
+        <v>78.400999999999996</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>1574.4</v>
+      </c>
+      <c r="B286">
+        <v>76.963999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>1574.4</v>
+      </c>
+      <c r="B287">
+        <v>79.893000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>1581.8</v>
+      </c>
+      <c r="B288">
+        <v>79.078999999999994</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>1584.3</v>
+      </c>
+      <c r="B289">
+        <v>80.272000000000006</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>1586.7</v>
+      </c>
+      <c r="B290">
+        <v>79.893000000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>1591.6</v>
+      </c>
+      <c r="B291">
+        <v>76.475999999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>1613.7</v>
+      </c>
+      <c r="B292">
+        <v>76.069000000000003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>1635.9</v>
+      </c>
+      <c r="B293">
+        <v>76.015000000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>1677.8</v>
+      </c>
+      <c r="B294">
+        <v>76.367000000000004</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>1697.5</v>
+      </c>
+      <c r="B295">
+        <v>76.801000000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>1712.3</v>
+      </c>
+      <c r="B296">
+        <v>77.397999999999996</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>1729.5</v>
+      </c>
+      <c r="B297">
+        <v>78.021000000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>1734.4</v>
+      </c>
+      <c r="B298">
+        <v>76.447999999999993</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>1741.8</v>
+      </c>
+      <c r="B299">
+        <v>77.045000000000002</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>1741.8</v>
+      </c>
+      <c r="B300">
+        <v>78.481999999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>1746.8</v>
+      </c>
+      <c r="B301">
+        <v>79.025000000000006</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>1751.6</v>
+      </c>
+      <c r="B302">
+        <v>75.635000000000005</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>1751.7</v>
+      </c>
+      <c r="B303">
+        <v>77.533000000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>1768.9</v>
+      </c>
+      <c r="B304">
+        <v>78.563999999999993</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>1773.9</v>
+      </c>
+      <c r="B305">
+        <v>80.191000000000003</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>1786.2</v>
+      </c>
+      <c r="B306">
+        <v>79.974000000000004</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>1796</v>
+      </c>
+      <c r="B307">
+        <v>75.091999999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>1818.1</v>
+      </c>
+      <c r="B308">
+        <v>75.119</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>1845.2</v>
+      </c>
+      <c r="B309">
+        <v>75.825000000000003</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>1852.6</v>
+      </c>
+      <c r="B310">
+        <v>76.447999999999993</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>1862.5</v>
+      </c>
+      <c r="B311">
+        <v>77.045000000000002</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>1872.4</v>
+      </c>
+      <c r="B312">
+        <v>77.885999999999996</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>1901.9</v>
+      </c>
+      <c r="B313">
+        <v>75.308999999999997</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>1901.9</v>
+      </c>
+      <c r="B314">
+        <v>75.418000000000006</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>1901.9</v>
+      </c>
+      <c r="B315">
+        <v>75.986999999999995</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>1901.9</v>
+      </c>
+      <c r="B316">
+        <v>76.501999999999995</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>1901.9</v>
+      </c>
+      <c r="B317">
+        <v>76.611000000000004</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>1901.9</v>
+      </c>
+      <c r="B318">
+        <v>77.045000000000002</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>1909.3</v>
+      </c>
+      <c r="B319">
+        <v>75.308999999999997</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>1916.6</v>
+      </c>
+      <c r="B320">
+        <v>75.335999999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>1938.8</v>
+      </c>
+      <c r="B321">
+        <v>75.933000000000007</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>1965.9</v>
+      </c>
+      <c r="B322">
+        <v>76.313000000000002</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>1985.6</v>
+      </c>
+      <c r="B323">
+        <v>76.150000000000006</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>1995.5</v>
+      </c>
+      <c r="B324">
+        <v>75.525999999999996</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>1997.9</v>
+      </c>
+      <c r="B325">
+        <v>75.091999999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>2012.7</v>
+      </c>
+      <c r="B326">
+        <v>74.875</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>2042.2</v>
+      </c>
+      <c r="B327">
+        <v>74.116</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>2057</v>
+      </c>
+      <c r="B328">
+        <v>73.709000000000003</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>2059.5</v>
+      </c>
+      <c r="B329">
+        <v>74.17</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>2094</v>
+      </c>
+      <c r="B330">
+        <v>75.227999999999994</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>2111.1999999999998</v>
+      </c>
+      <c r="B331">
+        <v>75.634</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>2123.5</v>
+      </c>
+      <c r="B332">
+        <v>74.468000000000004</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>2125.9</v>
+      </c>
+      <c r="B333">
+        <v>73.843999999999994</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>2126</v>
+      </c>
+      <c r="B334">
+        <v>75.119</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>2155.5</v>
+      </c>
+      <c r="B335">
+        <v>73.248000000000005</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>2170.3000000000002</v>
+      </c>
+      <c r="B336">
+        <v>73.194000000000003</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>2214.6</v>
+      </c>
+      <c r="B337">
+        <v>73.953000000000003</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>2239.1999999999998</v>
+      </c>
+      <c r="B338">
+        <v>74.414000000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>2254</v>
+      </c>
+      <c r="B339">
+        <v>73.709000000000003</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>2254</v>
+      </c>
+      <c r="B340">
+        <v>74.549000000000007</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>2263.9</v>
+      </c>
+      <c r="B341">
+        <v>73.165999999999997</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>2271.1999999999998</v>
+      </c>
+      <c r="B342">
+        <v>72.760000000000005</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>2305.6999999999998</v>
+      </c>
+      <c r="B343">
+        <v>73.084999999999994</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>2327.9</v>
+      </c>
+      <c r="B344">
+        <v>73.031000000000006</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>2350</v>
+      </c>
+      <c r="B345">
+        <v>72.569999999999993</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>2394.4</v>
+      </c>
+      <c r="B346">
+        <v>72.162999999999997</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>2423.9</v>
+      </c>
+      <c r="B347">
+        <v>71.891999999999996</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>2443.6</v>
+      </c>
+      <c r="B348">
+        <v>72.108999999999995</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>2446.1</v>
+      </c>
+      <c r="B349">
+        <v>72.271000000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>2468.1999999999998</v>
+      </c>
+      <c r="B350">
+        <v>72.488</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>2483</v>
+      </c>
+      <c r="B351">
+        <v>72.731999999999999</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>2483</v>
+      </c>
+      <c r="B352">
+        <v>72.894999999999996</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>2483</v>
+      </c>
+      <c r="B353">
+        <v>72.975999999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>2485.5</v>
+      </c>
+      <c r="B354">
+        <v>72.894999999999996</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>2497.8000000000002</v>
+      </c>
+      <c r="B355">
+        <v>71.756</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>2512.5</v>
+      </c>
+      <c r="B356">
+        <v>70.888000000000005</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>2529.8000000000002</v>
+      </c>
+      <c r="B357">
+        <v>70.480999999999995</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>2537.1999999999998</v>
+      </c>
+      <c r="B358">
+        <v>69.885000000000005</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>2537.1999999999998</v>
+      </c>
+      <c r="B359">
+        <v>69.965999999999994</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>2561.8000000000002</v>
+      </c>
+      <c r="B360">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>2596.3000000000002</v>
+      </c>
+      <c r="B361">
+        <v>71.105000000000004</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>2620.9</v>
+      </c>
+      <c r="B362">
+        <v>71.430000000000007</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>2623.4</v>
+      </c>
+      <c r="B363">
+        <v>71.593000000000004</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>2630.8</v>
+      </c>
+      <c r="B364">
+        <v>70.507999999999996</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>2657.8</v>
+      </c>
+      <c r="B365">
+        <v>69.912000000000006</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>2667.7</v>
+      </c>
+      <c r="B366">
+        <v>69.802999999999997</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>2694.8</v>
+      </c>
+      <c r="B367">
+        <v>70.046999999999997</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>2716.9</v>
+      </c>
+      <c r="B368">
+        <v>70.644000000000005</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>2734.2</v>
+      </c>
+      <c r="B369">
+        <v>71.239999999999995</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>2736.6</v>
+      </c>
+      <c r="B370">
+        <v>70.617000000000004</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>2746.5</v>
+      </c>
+      <c r="B371">
+        <v>69.504999999999995</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>2803.1</v>
+      </c>
+      <c r="B372">
+        <v>68.474000000000004</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>2817.9</v>
+      </c>
+      <c r="B373">
+        <v>68.745000000000005</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>2847.5</v>
+      </c>
+      <c r="B374">
+        <v>69.477000000000004</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>2857.3</v>
+      </c>
+      <c r="B375">
+        <v>69.911000000000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>2867.2</v>
+      </c>
+      <c r="B376">
+        <v>69.775999999999996</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>2877</v>
+      </c>
+      <c r="B377">
+        <v>69.070999999999998</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>2891.8</v>
+      </c>
+      <c r="B378">
+        <v>68.664000000000001</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>2911.5</v>
+      </c>
+      <c r="B379">
+        <v>68.799000000000007</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>2931.2</v>
+      </c>
+      <c r="B380">
+        <v>67.525000000000006</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>2933.6</v>
+      </c>
+      <c r="B381">
+        <v>67.66</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>2938.6</v>
+      </c>
+      <c r="B382">
+        <v>69.179000000000002</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>2943.5</v>
+      </c>
+      <c r="B383">
+        <v>68.555000000000007</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>2978</v>
+      </c>
+      <c r="B384">
+        <v>68.120999999999995</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>2982.9</v>
+      </c>
+      <c r="B385">
+        <v>68.203000000000003</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>3019.8</v>
+      </c>
+      <c r="B386">
+        <v>68.42</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>3029.7</v>
+      </c>
+      <c r="B387">
+        <v>67.388999999999996</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>3034.6</v>
+      </c>
+      <c r="B388">
+        <v>67.715000000000003</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>3049.4</v>
+      </c>
+      <c r="B389">
+        <v>68.501000000000005</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>3049.4</v>
+      </c>
+      <c r="B390">
+        <v>68.637</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>3118.3</v>
+      </c>
+      <c r="B391">
+        <v>66.873999999999995</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>3133.1</v>
+      </c>
+      <c r="B392">
+        <v>67.796000000000006</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>3147.9</v>
+      </c>
+      <c r="B393">
+        <v>67.171999999999997</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>3147.9</v>
+      </c>
+      <c r="B394">
+        <v>67.822999999999993</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>3155.3</v>
+      </c>
+      <c r="B395">
+        <v>67.497</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>3204.5</v>
+      </c>
+      <c r="B396">
+        <v>67.361999999999995</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>3234</v>
+      </c>
+      <c r="B397">
+        <v>66.602000000000004</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>3258.7</v>
+      </c>
+      <c r="B398">
+        <v>66.033000000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>3266.1</v>
+      </c>
+      <c r="B399">
+        <v>65.843000000000004</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>3322.7</v>
+      </c>
+      <c r="B400">
+        <v>66.873999999999995</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>3337.5</v>
+      </c>
+      <c r="B401">
+        <v>67.09</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>3347.3</v>
+      </c>
+      <c r="B402">
+        <v>66.168000000000006</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>3364.6</v>
+      </c>
+      <c r="B403">
+        <v>65.733999999999995</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>3396.6</v>
+      </c>
+      <c r="B404">
+        <v>66.033000000000001</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>3438.5</v>
+      </c>
+      <c r="B405">
+        <v>66.548000000000002</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>3450.8</v>
+      </c>
+      <c r="B406">
+        <v>66.792000000000002</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>3458.1</v>
+      </c>
+      <c r="B407">
+        <v>65.950999999999993</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>3465.5</v>
+      </c>
+      <c r="B408">
+        <v>65.545000000000002</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>3468</v>
+      </c>
+      <c r="B409">
+        <v>65.055999999999997</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>3490.2</v>
+      </c>
+      <c r="B410">
+        <v>65.572000000000003</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>3509.9</v>
+      </c>
+      <c r="B411">
+        <v>65.950999999999993</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>3534.5</v>
+      </c>
+      <c r="B412">
+        <v>65.489999999999995</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>3561.6</v>
+      </c>
+      <c r="B413">
+        <v>64.894000000000005</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>3583.7</v>
+      </c>
+      <c r="B414">
+        <v>64.730999999999995</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>3625.6</v>
+      </c>
+      <c r="B415">
+        <v>65.489999999999995</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>3628.1</v>
+      </c>
+      <c r="B416">
+        <v>66.521000000000001</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>3633</v>
+      </c>
+      <c r="B417">
+        <v>65.436000000000007</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>3633</v>
+      </c>
+      <c r="B418">
+        <v>65.897000000000006</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>3640.4</v>
+      </c>
+      <c r="B419">
+        <v>65.382000000000005</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>3687.2</v>
+      </c>
+      <c r="B420">
+        <v>65.977999999999994</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>3711.8</v>
+      </c>
+      <c r="B421">
+        <v>66.141000000000005</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>3716.7</v>
+      </c>
+      <c r="B422">
+        <v>65.489999999999995</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>3734</v>
+      </c>
+      <c r="B423">
+        <v>64.974999999999994</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>3751.2</v>
+      </c>
+      <c r="B424">
+        <v>64.567999999999998</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>3751.2</v>
+      </c>
+      <c r="B425">
+        <v>64.649000000000001</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>3751.2</v>
+      </c>
+      <c r="B426">
+        <v>65.055999999999997</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>3751.2</v>
+      </c>
+      <c r="B427">
+        <v>65.570999999999998</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>3770.9</v>
+      </c>
+      <c r="B428">
+        <v>64.567999999999998</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>3785.7</v>
+      </c>
+      <c r="B429">
+        <v>64.622</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>3795.5</v>
+      </c>
+      <c r="B430">
+        <v>64.757999999999996</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>3805.4</v>
+      </c>
+      <c r="B431">
+        <v>64.947999999999993</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>3822.6</v>
+      </c>
+      <c r="B432">
+        <v>64.811999999999998</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>3827.5</v>
+      </c>
+      <c r="B433">
+        <v>65.218999999999994</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>3830</v>
+      </c>
+      <c r="B434">
+        <v>65.272999999999996</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>3842.3</v>
+      </c>
+      <c r="B435">
+        <v>65.11</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>3864.5</v>
+      </c>
+      <c r="B436">
+        <v>65.462999999999994</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>3871.9</v>
+      </c>
+      <c r="B437">
+        <v>65.680000000000007</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>3871.9</v>
+      </c>
+      <c r="B438">
+        <v>65.897000000000006</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>3876.8</v>
+      </c>
+      <c r="B439">
+        <v>66.058999999999997</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>3881.7</v>
+      </c>
+      <c r="B440">
+        <v>66.168000000000006</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>3889.1</v>
+      </c>
+      <c r="B441">
+        <v>65.869</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>3891.6</v>
+      </c>
+      <c r="B442">
+        <v>65.977999999999994</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>3908.8</v>
+      </c>
+      <c r="B443">
+        <v>66.492999999999995</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>3918.7</v>
+      </c>
+      <c r="B444">
+        <v>67.007999999999996</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>3918.7</v>
+      </c>
+      <c r="B445">
+        <v>67.197999999999993</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>3918.7</v>
+      </c>
+      <c r="B446">
+        <v>67.307000000000002</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>3918.7</v>
+      </c>
+      <c r="B447">
+        <v>67.605000000000004</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>3918.7</v>
+      </c>
+      <c r="B448">
+        <v>67.822000000000003</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>3926.1</v>
+      </c>
+      <c r="B449">
+        <v>67.741</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>3928.6</v>
+      </c>
+      <c r="B450">
+        <v>67.686000000000007</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>3935.9</v>
+      </c>
+      <c r="B451">
+        <v>68.147000000000006</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>3948.3</v>
+      </c>
+      <c r="B452">
+        <v>68.744</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>3955.7</v>
+      </c>
+      <c r="B453">
+        <v>68.744</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>3958.1</v>
+      </c>
+      <c r="B454">
+        <v>68.771000000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>3958.1</v>
+      </c>
+      <c r="B455">
+        <v>69.313999999999993</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>3960.6</v>
+      </c>
+      <c r="B456">
+        <v>69.340999999999994</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>3965.5</v>
+      </c>
+      <c r="B457">
+        <v>69.611999999999995</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>3968</v>
+      </c>
+      <c r="B458">
+        <v>70.397999999999996</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>3977.8</v>
+      </c>
+      <c r="B459">
+        <v>70.316999999999993</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>3982.8</v>
+      </c>
+      <c r="B460">
+        <v>72.92</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>3982.8</v>
+      </c>
+      <c r="B461">
+        <v>73.924000000000007</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>3992.6</v>
+      </c>
+      <c r="B462">
+        <v>70.072999999999993</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>3992.6</v>
+      </c>
+      <c r="B463">
+        <v>71.022000000000006</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>3992.6</v>
+      </c>
+      <c r="B464">
+        <v>71.835999999999999</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>3995.2</v>
+      </c>
+      <c r="B465">
+        <v>74.275999999999996</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>4012.4</v>
+      </c>
+      <c r="B466">
+        <v>75.795000000000002</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>4017.3</v>
+      </c>
+      <c r="B467">
+        <v>74.765000000000001</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>4022.3</v>
+      </c>
+      <c r="B468">
+        <v>76.337000000000003</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>4022.3</v>
+      </c>
+      <c r="B469">
+        <v>76.852999999999994</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>4024.8</v>
+      </c>
+      <c r="B470">
+        <v>77.231999999999999</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>4024.8</v>
+      </c>
+      <c r="B471">
+        <v>77.936999999999998</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>4024.8</v>
+      </c>
+      <c r="B472">
+        <v>78.453000000000003</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>4029.7</v>
+      </c>
+      <c r="B473">
+        <v>78.887</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>4044.5</v>
+      </c>
+      <c r="B474">
+        <v>80.27</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>4047</v>
+      </c>
+      <c r="B475">
+        <v>79.429000000000002</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>4047</v>
+      </c>
+      <c r="B476">
+        <v>80.134</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>4059.2</v>
+      </c>
+      <c r="B477">
+        <v>75.578000000000003</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>4061.6</v>
+      </c>
+      <c r="B478">
+        <v>73.625</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>4061.6</v>
+      </c>
+      <c r="B479">
+        <v>73.841999999999999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>4061.6</v>
+      </c>
+      <c r="B480">
+        <v>74.465999999999994</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>4061.7</v>
+      </c>
+      <c r="B481">
+        <v>75.063000000000002</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>4061.7</v>
+      </c>
+      <c r="B482">
+        <v>76.337000000000003</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>4069</v>
+      </c>
+      <c r="B483">
+        <v>73.218999999999994</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>4074</v>
+      </c>
+      <c r="B484">
+        <v>76.716999999999999</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>4074</v>
+      </c>
+      <c r="B485">
+        <v>76.988</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>4078.9</v>
+      </c>
+      <c r="B486">
+        <v>72.92</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>4081.3</v>
+      </c>
+      <c r="B487">
+        <v>71.835999999999999</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>4081.3</v>
+      </c>
+      <c r="B488">
+        <v>72.025000000000006</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>4081.3</v>
+      </c>
+      <c r="B489">
+        <v>72.594999999999999</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>4083.8</v>
+      </c>
+      <c r="B490">
+        <v>72.025000000000006</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>4088.8</v>
+      </c>
+      <c r="B491">
+        <v>78.209000000000003</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>4096.1000000000004</v>
+      </c>
+      <c r="B492">
+        <v>72.378</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>4103.5</v>
+      </c>
+      <c r="B493">
+        <v>72.08</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>4108.3999999999996</v>
+      </c>
+      <c r="B494">
+        <v>71.537000000000006</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>4113.3</v>
+      </c>
+      <c r="B495">
+        <v>71.158000000000001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>4120.7</v>
+      </c>
+      <c r="B496">
+        <v>71.293000000000006</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>4150.2</v>
+      </c>
+      <c r="B497">
+        <v>69.665999999999997</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>4150.2</v>
+      </c>
+      <c r="B498">
+        <v>69.991</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>4152.7</v>
+      </c>
+      <c r="B499">
+        <v>70.668999999999997</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>4155.2</v>
+      </c>
+      <c r="B500">
+        <v>71.212000000000003</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>4155.2</v>
+      </c>
+      <c r="B501">
+        <v>71.673000000000002</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>4155.2</v>
+      </c>
+      <c r="B502">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>4160.1000000000004</v>
+      </c>
+      <c r="B503">
+        <v>69.855999999999995</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>4177.3</v>
+      </c>
+      <c r="B504">
+        <v>70.018000000000001</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>4182.2</v>
+      </c>
+      <c r="B505">
+        <v>69.855999999999995</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>4189.6000000000004</v>
+      </c>
+      <c r="B506">
+        <v>69.34</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>4199.5</v>
+      </c>
+      <c r="B507">
+        <v>68.933999999999997</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>4201.8999999999996</v>
+      </c>
+      <c r="B508">
+        <v>68.256</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>4211.8</v>
+      </c>
+      <c r="B509">
+        <v>68.093000000000004</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>4224.1000000000004</v>
+      </c>
+      <c r="B510">
+        <v>68.200999999999993</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>4226.5</v>
+      </c>
+      <c r="B511">
+        <v>67.849000000000004</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>4231.5</v>
+      </c>
+      <c r="B512">
+        <v>67.876000000000005</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>4261</v>
+      </c>
+      <c r="B513">
+        <v>68.31</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>4275.8</v>
+      </c>
+      <c r="B514">
+        <v>68.554000000000002</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>4288.1000000000004</v>
+      </c>
+      <c r="B515">
+        <v>67.795000000000002</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>4307.8</v>
+      </c>
+      <c r="B516">
+        <v>66.872</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>4317.6000000000004</v>
+      </c>
+      <c r="B517">
+        <v>67.061999999999998</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>4347.2</v>
+      </c>
+      <c r="B518">
+        <v>67.712999999999994</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>4349.7</v>
+      </c>
+      <c r="B519">
+        <v>67.712999999999994</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>4352.1000000000004</v>
+      </c>
+      <c r="B520">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>4359.5</v>
+      </c>
+      <c r="B521">
+        <v>66.683000000000007</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>4362</v>
+      </c>
+      <c r="B522">
+        <v>66.593999999999994</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>4377.5</v>
+      </c>
+      <c r="B523">
+        <v>66.832999999999998</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>4407</v>
+      </c>
+      <c r="B524">
+        <v>67.209000000000003</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>4419.3999999999996</v>
+      </c>
+      <c r="B525">
+        <v>66.183999999999997</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>4422.5</v>
+      </c>
+      <c r="B526">
+        <v>65.688000000000002</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>4462.8</v>
+      </c>
+      <c r="B527">
+        <v>66.063999999999993</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>4481.3999999999996</v>
+      </c>
+      <c r="B528">
+        <v>65.295000000000002</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>4481.3999999999996</v>
+      </c>
+      <c r="B529">
+        <v>66.183999999999997</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>4486.1000000000004</v>
+      </c>
+      <c r="B530">
+        <v>65.739000000000004</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>4524.8</v>
+      </c>
+      <c r="B531">
+        <v>65.448999999999998</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>4571.3999999999996</v>
+      </c>
+      <c r="B532">
+        <v>65.688000000000002</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>4574.5</v>
+      </c>
+      <c r="B533">
+        <v>64.304000000000002</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>4574.5</v>
+      </c>
+      <c r="B534">
+        <v>64.373000000000005</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>4576</v>
+      </c>
+      <c r="B535">
+        <v>65.790999999999997</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>4579.1000000000004</v>
+      </c>
+      <c r="B536">
+        <v>65.364000000000004</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>4600.8999999999996</v>
+      </c>
+      <c r="B537">
+        <v>65.072999999999993</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>4636.6000000000004</v>
+      </c>
+      <c r="B538">
+        <v>65.671000000000006</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>4649</v>
+      </c>
+      <c r="B539">
+        <v>65.311999999999998</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>4667.6000000000004</v>
+      </c>
+      <c r="B540">
+        <v>64.629000000000005</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>4693.8999999999996</v>
+      </c>
+      <c r="B541">
+        <v>64.492000000000004</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>4794.8</v>
+      </c>
+      <c r="B542">
+        <v>64.867999999999995</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>4811.8</v>
+      </c>
+      <c r="B543">
+        <v>64.593999999999994</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>4825.8</v>
+      </c>
+      <c r="B544">
+        <v>63.997</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>4830.3999999999996</v>
+      </c>
+      <c r="B545">
+        <v>63.962000000000003</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>4847</v>
+      </c>
+      <c r="B546">
+        <v>64.393000000000001</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>4850.8999999999996</v>
+      </c>
+      <c r="B547">
+        <v>64.822999999999993</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>4862.6000000000004</v>
+      </c>
+      <c r="B548">
+        <v>64.78</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>4866.5</v>
+      </c>
+      <c r="B549">
+        <v>63.875999999999998</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>4874.3</v>
+      </c>
+      <c r="B550">
+        <v>63.317</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>4878.2</v>
+      </c>
+      <c r="B551">
+        <v>62.972000000000001</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>4882.1000000000004</v>
+      </c>
+      <c r="B552">
+        <v>62.326999999999998</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>4882.1000000000004</v>
+      </c>
+      <c r="B553">
+        <v>62.456000000000003</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>4882.1000000000004</v>
+      </c>
+      <c r="B554">
+        <v>62.499000000000002</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>4909.5</v>
+      </c>
+      <c r="B555">
+        <v>63.531999999999996</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>4925.1000000000004</v>
+      </c>
+      <c r="B556">
+        <v>64.221000000000004</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>4929.1000000000004</v>
+      </c>
+      <c r="B557">
+        <v>64.436000000000007</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>4929.1000000000004</v>
+      </c>
+      <c r="B558">
+        <v>64.522000000000006</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>4933</v>
+      </c>
+      <c r="B559">
+        <v>63.962000000000003</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>4944.7</v>
+      </c>
+      <c r="B560">
+        <v>63.274000000000001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>4952.5</v>
+      </c>
+      <c r="B561">
+        <v>62.886000000000003</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>4972</v>
+      </c>
+      <c r="B562">
+        <v>63.445999999999998</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>4999.3999999999996</v>
+      </c>
+      <c r="B563">
+        <v>63.962000000000003</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>5022.8999999999996</v>
+      </c>
+      <c r="B564">
+        <v>64.221000000000004</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>5038.5</v>
+      </c>
+      <c r="B565">
+        <v>62.886000000000003</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>5038.5</v>
+      </c>
+      <c r="B566">
+        <v>63.488999999999997</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>5038.5</v>
+      </c>
+      <c r="B567">
+        <v>64.349999999999994</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>5042.3999999999996</v>
+      </c>
+      <c r="B568">
+        <v>62.542000000000002</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>5085.3999999999996</v>
+      </c>
+      <c r="B569">
+        <v>61.378999999999998</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>5093.2</v>
+      </c>
+      <c r="B570">
+        <v>63.186999999999998</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>5097.1000000000004</v>
+      </c>
+      <c r="B571">
+        <v>61.81</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>5108.8999999999996</v>
+      </c>
+      <c r="B572">
+        <v>63.661000000000001</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>5112.8</v>
+      </c>
+      <c r="B573">
+        <v>62.067999999999998</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>5112.8</v>
+      </c>
+      <c r="B574">
+        <v>62.756999999999998</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>5116.7</v>
+      </c>
+      <c r="B575">
+        <v>63.918999999999997</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>5140.1000000000004</v>
+      </c>
+      <c r="B576">
+        <v>62.972000000000001</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>5159.7</v>
+      </c>
+      <c r="B577">
+        <v>63.79</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>5167.5</v>
+      </c>
+      <c r="B578">
+        <v>64.349999999999994</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>5171.3999999999996</v>
+      </c>
+      <c r="B579">
+        <v>64.307000000000002</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>5175.3</v>
+      </c>
+      <c r="B580">
+        <v>62.369</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>5175.3</v>
+      </c>
+      <c r="B581">
+        <v>63.23</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>5179.2</v>
+      </c>
+      <c r="B582">
+        <v>62.067999999999998</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>5187</v>
+      </c>
+      <c r="B583">
+        <v>62.283000000000001</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>5218.3</v>
+      </c>
+      <c r="B584">
+        <v>63.316000000000003</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>5234</v>
+      </c>
+      <c r="B585">
+        <v>63.704000000000001</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>5234</v>
+      </c>
+      <c r="B586">
+        <v>63.962000000000003</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>5249.6</v>
+      </c>
+      <c r="B587">
+        <v>63.875999999999998</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>5291.2</v>
+      </c>
+      <c r="B588">
+        <v>62.970999999999997</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>5294.3</v>
+      </c>
+      <c r="B589">
+        <v>63.432000000000002</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>5300.5</v>
+      </c>
+      <c r="B590">
+        <v>62.457999999999998</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>5300.5</v>
+      </c>
+      <c r="B591">
+        <v>63.226999999999997</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>5302</v>
+      </c>
+      <c r="B592">
+        <v>62.064999999999998</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>5343.9</v>
+      </c>
+      <c r="B593">
+        <v>62.662999999999997</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>5359.5</v>
+      </c>
+      <c r="B594">
+        <v>62.970999999999997</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>5362.6</v>
+      </c>
+      <c r="B595">
+        <v>63.363999999999997</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>5364.1</v>
+      </c>
+      <c r="B596">
+        <v>62.902999999999999</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>5364.1</v>
+      </c>
+      <c r="B597">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>5375</v>
+      </c>
+      <c r="B598">
+        <v>62.219000000000001</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>5385.8</v>
+      </c>
+      <c r="B599">
+        <v>61.911999999999999</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>5413.8</v>
+      </c>
+      <c r="B600">
+        <v>62.356000000000002</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>5458.7</v>
+      </c>
+      <c r="B601">
+        <v>61.279000000000003</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>5458.8</v>
+      </c>
+      <c r="B602">
+        <v>63.192999999999998</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>5461.9</v>
+      </c>
+      <c r="B603">
+        <v>62.868000000000002</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>5475.8</v>
+      </c>
+      <c r="B604">
+        <v>60.289000000000001</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>5491.3</v>
+      </c>
+      <c r="B605">
+        <v>61.023000000000003</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>5528.5</v>
+      </c>
+      <c r="B606">
+        <v>61.843000000000004</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>5554.9</v>
+      </c>
+      <c r="B607">
+        <v>61.194000000000003</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>5556.5</v>
+      </c>
+      <c r="B608">
+        <v>62.320999999999998</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>5576.6</v>
+      </c>
+      <c r="B609">
+        <v>61.295999999999999</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>5617</v>
+      </c>
+      <c r="B610">
+        <v>61.808999999999997</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>5630.9</v>
+      </c>
+      <c r="B611">
+        <v>61.893999999999998</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>5671.3</v>
+      </c>
+      <c r="B612">
+        <v>61.210999999999999</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>5706.9</v>
+      </c>
+      <c r="B613">
+        <v>60.972000000000001</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>5745.7</v>
+      </c>
+      <c r="B614">
+        <v>61.74</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>5753.5</v>
+      </c>
+      <c r="B615">
+        <v>62.253</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>5756.6</v>
+      </c>
+      <c r="B616">
+        <v>61.843000000000004</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>5812.4</v>
+      </c>
+      <c r="B617">
+        <v>60.783999999999999</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>5854.3</v>
+      </c>
+      <c r="B618">
+        <v>61.381999999999998</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>5859</v>
+      </c>
+      <c r="B619">
+        <v>61.945</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>5866.8</v>
+      </c>
+      <c r="B620">
+        <v>61.927999999999997</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>5893.1</v>
+      </c>
+      <c r="B621">
+        <v>61.176000000000002</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>5896.2</v>
+      </c>
+      <c r="B622">
+        <v>60.970999999999997</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>5905.5</v>
+      </c>
+      <c r="B623">
+        <v>61.363999999999997</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>5925.7</v>
+      </c>
+      <c r="B624">
+        <v>61.790999999999997</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>5942.8</v>
+      </c>
+      <c r="B625">
+        <v>61.176000000000002</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>5942.8</v>
+      </c>
+      <c r="B626">
+        <v>61.893999999999998</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>5955.2</v>
+      </c>
+      <c r="B627">
+        <v>60.851999999999997</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>5969.1</v>
+      </c>
+      <c r="B628">
+        <v>60.63</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>5987.8</v>
+      </c>
+      <c r="B629">
+        <v>60.92</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>6018.8</v>
+      </c>
+      <c r="B630">
+        <v>60.066000000000003</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>6025</v>
+      </c>
+      <c r="B631">
+        <v>61.500999999999998</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>6031.2</v>
+      </c>
+      <c r="B632">
+        <v>59.929000000000002</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>6034.3</v>
+      </c>
+      <c r="B633">
+        <v>61.091000000000001</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>6040.5</v>
+      </c>
+      <c r="B634">
+        <v>60.561</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>6054.5</v>
+      </c>
+      <c r="B635">
+        <v>61.091000000000001</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>6068.4</v>
+      </c>
+      <c r="B636">
+        <v>60.475999999999999</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>6090.1</v>
+      </c>
+      <c r="B637">
+        <v>59.878</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>6115</v>
+      </c>
+      <c r="B638">
+        <v>60.356000000000002</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>6149.1</v>
+      </c>
+      <c r="B639">
+        <v>61.158999999999999</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>6163.1</v>
+      </c>
+      <c r="B640">
+        <v>61.500999999999998</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>6173.9</v>
+      </c>
+      <c r="B641">
+        <v>60.151000000000003</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>6191</v>
+      </c>
+      <c r="B642">
+        <v>60.048999999999999</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>6214.3</v>
+      </c>
+      <c r="B643">
+        <v>60.834000000000003</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>6218.9</v>
+      </c>
+      <c r="B644">
+        <v>59.878</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>6225.1</v>
+      </c>
+      <c r="B645">
+        <v>59.536000000000001</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>6232.9</v>
+      </c>
+      <c r="B646">
+        <v>61.107999999999997</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>6256.1</v>
+      </c>
+      <c r="B647">
+        <v>60.628999999999998</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>6273.2</v>
+      </c>
+      <c r="B648">
+        <v>60.954000000000001</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>6304.2</v>
+      </c>
+      <c r="B649">
+        <v>59.860999999999997</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>6349.2</v>
+      </c>
+      <c r="B650">
+        <v>59.603999999999999</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>6392.7</v>
+      </c>
+      <c r="B651">
+        <v>60.372999999999998</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>6415.9</v>
+      </c>
+      <c r="B652">
+        <v>60.783000000000001</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>6437.6</v>
+      </c>
+      <c r="B653">
+        <v>59.878</v>
       </c>
     </row>
   </sheetData>
